--- a/public/expense-analysis.xlsx
+++ b/public/expense-analysis.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-Wilmington/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC63F3D-E288-3947-BEE2-7EF508DA47C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92442624-0070-7544-BBFE-7D89BA2DF943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="220" yWindow="760" windowWidth="30020" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$EL$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="294">
   <si>
     <t>Category</t>
   </si>
@@ -74,9 +90,6 @@
   </si>
   <si>
     <t>May 2025</t>
-  </si>
-  <si>
-    <t>June 2025</t>
   </si>
   <si>
     <t>Nonzero Month Count</t>
@@ -928,12 +941,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -963,11 +988,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,144 +1304,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EL41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="40.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="21" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="19.5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="35" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="15" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="21" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="89" max="90" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="21" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="24" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="20" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="26" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="103" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="85.1640625" bestFit="1" customWidth="1"/>
     <col min="103" max="103" width="121.83203125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="25" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="113" max="114" width="30" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="25" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="32" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="32" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="30" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="113" max="114" width="35" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="30" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="37" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="41.1640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="40.1640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="37" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="32.83203125" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:142" x14ac:dyDescent="0.2">
@@ -1469,382 +1504,382 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2">
+        <v>45809</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>88961.16</v>
@@ -1922,7 +1957,7 @@
         <v>-1.487710217174026</v>
       </c>
       <c r="AA2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB2">
         <v>-159.35537540042421</v>
@@ -1964,22 +1999,22 @@
         <v>1.001517900364232</v>
       </c>
       <c r="AO2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AS2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV2">
         <v>2715.3228998968002</v>
@@ -1988,10 +2023,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AZ2">
         <v>1</v>
@@ -2260,7 +2295,7 @@
     </row>
     <row r="3" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3">
         <v>5000</v>
@@ -2338,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB3">
         <v>5000</v>
@@ -2380,22 +2415,22 @@
         <v>0</v>
       </c>
       <c r="AO3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AR3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV3">
         <v>0</v>
@@ -2404,10 +2439,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ3">
         <v>18</v>
@@ -2557,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="CW3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CX3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CZ3">
         <v>0</v>
@@ -2682,7 +2717,7 @@
     </row>
     <row r="4" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4">
         <v>51014.16</v>
@@ -2760,7 +2795,7 @@
         <v>-5827.1760136800367</v>
       </c>
       <c r="AA4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB4">
         <v>57058.84</v>
@@ -2802,22 +2837,22 @@
         <v>-0.86161323165615356</v>
       </c>
       <c r="AO4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU4" t="s">
         <v>206</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>207</v>
       </c>
       <c r="AV4">
         <v>487.56871001031959</v>
@@ -2826,10 +2861,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ4">
         <v>40</v>
@@ -2979,13 +3014,13 @@
         <v>7</v>
       </c>
       <c r="CW4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CX4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="CY4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="CZ4">
         <v>-1.0343794742479351</v>
@@ -3107,7 +3142,7 @@
     </row>
     <row r="5" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>897.96</v>
@@ -3185,7 +3220,7 @@
         <v>-4179.8227780934367</v>
       </c>
       <c r="AA5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB5">
         <v>-593.16388888888889</v>
@@ -3227,22 +3262,22 @@
         <v>130.80016370712639</v>
       </c>
       <c r="AO5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV5">
         <v>-123.9096904024767</v>
@@ -3251,10 +3286,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ5">
         <v>39</v>
@@ -3404,13 +3439,13 @@
         <v>10</v>
       </c>
       <c r="CW5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CX5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="CY5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="CZ5">
         <v>-149.69486391376009</v>
@@ -3532,7 +3567,7 @@
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>5684.98</v>
@@ -3610,7 +3645,7 @@
         <v>-2472.7512731691481</v>
       </c>
       <c r="AA6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB6">
         <v>6448.2422222222222</v>
@@ -3652,25 +3687,25 @@
         <v>-2.8328115034284971</v>
       </c>
       <c r="AO6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP6">
         <v>2</v>
       </c>
       <c r="AQ6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU6" t="s">
         <v>206</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>207</v>
       </c>
       <c r="AV6">
         <v>120.5017131062951</v>
@@ -3679,10 +3714,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ6">
         <v>38</v>
@@ -3832,13 +3867,13 @@
         <v>6</v>
       </c>
       <c r="CW6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CX6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CY6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="CZ6">
         <v>23.847753202298001</v>
@@ -3960,7 +3995,7 @@
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4038,7 +4073,7 @@
         <v>-106.2906864466437</v>
       </c>
       <c r="AA7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB7">
         <v>116.8233333333333</v>
@@ -4080,22 +4115,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV7">
         <v>-5.4622703818369454</v>
@@ -4104,10 +4139,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ7">
         <v>30</v>
@@ -4257,13 +4292,13 @@
         <v>3</v>
       </c>
       <c r="CW7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="CX7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="CY7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="CZ7">
         <v>0</v>
@@ -4385,7 +4420,7 @@
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>11657.15</v>
@@ -4463,7 +4498,7 @@
         <v>-150.64176808871159</v>
       </c>
       <c r="AA8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB8">
         <v>12379.031666666669</v>
@@ -4505,22 +4540,22 @@
         <v>-0.52227259676420101</v>
       </c>
       <c r="AO8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV8">
         <v>-102.55573787409701</v>
@@ -4529,10 +4564,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ8">
         <v>37</v>
@@ -4682,13 +4717,13 @@
         <v>3</v>
       </c>
       <c r="CW8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CX8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CY8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CZ8">
         <v>0</v>
@@ -4810,7 +4845,7 @@
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>637.39</v>
@@ -4888,7 +4923,7 @@
         <v>51.2170641051855</v>
       </c>
       <c r="AA9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB9">
         <v>770.9133333333333</v>
@@ -4930,22 +4965,22 @@
         <v>0.81815872986812466</v>
       </c>
       <c r="AO9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AR9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU9" t="s">
         <v>206</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>207</v>
       </c>
       <c r="AV9">
         <v>5.5141589267285847</v>
@@ -4954,10 +4989,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ9">
         <v>8</v>
@@ -5107,13 +5142,13 @@
         <v>9</v>
       </c>
       <c r="CW9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="CX9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CY9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="CZ9">
         <v>7.2279138361129061</v>
@@ -5233,434 +5268,434 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:142" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="4">
         <v>1165.01</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>281.22000000000003</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>28.24</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>1007.71</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="4">
         <v>422.82</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="4">
         <v>281.26</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="4">
         <v>187.22</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="4">
         <v>440.02</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>462.8</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="4">
         <v>406.81</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="4">
         <v>527.26</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="4">
         <v>596.17999999999995</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <v>597.15</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="4">
         <v>784.05</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="4">
         <v>600.04999999999995</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="4">
         <v>594.12</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="4">
         <v>413.15</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="4">
         <v>620.47</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="4">
         <v>18</v>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
+      <c r="U10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
+        <v>0</v>
+      </c>
+      <c r="W10" s="4">
         <v>523.0855555555554</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="4">
         <v>5.21E-2</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="4">
         <v>1.6071</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="4">
         <v>67.085138840608465</v>
       </c>
-      <c r="AA10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB10">
+      <c r="AA10" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB10" s="4">
         <v>523.0855555555554</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
         <v>523.0855555555554</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="4">
         <v>517.35705882352954</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="4">
         <v>620.47</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="4">
         <v>264.9046841639381</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="4">
         <v>620.47</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="4">
         <v>523.0855555555554</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="4">
         <v>517.35705882352954</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="4">
         <v>523.08555555555563</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="4">
         <v>103.1129411764705</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="4">
         <v>0.19930711182514721</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="4">
         <v>1.948592434925986</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ10" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV10">
+      <c r="AR10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS10" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT10" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV10" s="4">
         <v>3.4125696594427248</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="4">
         <v>2719.0143962848292</v>
       </c>
-      <c r="AX10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY10" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ10">
+      <c r="AX10" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ10" s="4">
         <v>7</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="4">
         <v>610600</v>
       </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
+      <c r="BB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="4">
         <v>1.186173071326764</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="4">
         <v>620.47</v>
       </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
+      <c r="BE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="4">
         <v>620.47</v>
       </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
+      <c r="BG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="4">
         <v>517.35705882352954</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" s="4">
         <v>21</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
+      <c r="BK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="4">
         <v>980.31979715946977</v>
       </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
+      <c r="BN10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="4">
         <v>240.93202894844291</v>
       </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
+      <c r="BR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="4">
         <v>151.59146418366379</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" s="4">
         <v>22.544675180971691</v>
       </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10">
+      <c r="BV10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="4">
         <v>195.845458477628</v>
       </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
+      <c r="BX10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="4">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="4">
         <v>174.26521899479081</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" s="4">
         <v>-13.3983037688275</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" s="4">
         <v>-5.8498165455926996</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" s="4">
         <v>-8.0091967403318343</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" s="4">
         <v>15.826950741481999</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" s="4">
         <v>-9.5743736993039619</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" s="4">
         <v>16.060479827816572</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" s="4">
         <v>1.3390508768064591</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" s="4">
         <v>20.602987534438949</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" s="4">
         <v>19.04977010713052</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" s="4">
         <v>-12.65503900682477</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" s="4">
         <v>3.7955325302560792</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" s="4">
         <v>16.029458628169721</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" s="4">
         <v>-6.4980253667634713</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" s="4">
         <v>-11.74374544448243</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" s="4">
         <v>20.716481277808949</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" s="4">
         <v>-18.01038985321069</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" s="4">
         <v>3.0006731224033092</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" s="4">
         <v>1765.4986429449671</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" s="4">
         <v>6</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" s="4">
         <v>3</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" s="4">
         <v>7</v>
       </c>
-      <c r="CW10" t="s">
-        <v>222</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>251</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>276</v>
-      </c>
-      <c r="CZ10">
+      <c r="CW10" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="CX10" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="CY10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CZ10" s="4">
         <v>-75.861151406425691</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" s="4">
         <v>-89.958039968707766</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" s="4">
         <v>3468.3781869688391</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" s="4">
         <v>-58.041500034732223</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" s="4">
         <v>-33.479967835012538</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" s="4">
         <v>-33.43525563535519</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" s="4">
         <v>135.02830894135241</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" s="4">
         <v>5.1770374073905803</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" s="4">
         <v>-12.098098530682799</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" s="4">
         <v>29.60841670558737</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" s="4">
         <v>13.0713499981034</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" s="4">
         <v>0.16270253950149741</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" s="4">
         <v>31.298668676211999</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" s="4">
         <v>-23.467891078375111</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" s="4">
         <v>-0.98825097908506798</v>
       </c>
-      <c r="DO10">
+      <c r="DO10" s="4">
         <v>-30.460176395341019</v>
       </c>
-      <c r="DP10">
+      <c r="DP10" s="4">
         <v>50.180321916979317</v>
       </c>
-      <c r="DQ10">
+      <c r="DQ10" s="4">
         <v>-62.462847637598188</v>
       </c>
-      <c r="DR10">
+      <c r="DR10" s="4">
         <v>-84.108223423115064</v>
       </c>
-      <c r="DS10">
+      <c r="DS10" s="4">
         <v>3476.387383709171</v>
       </c>
-      <c r="DT10">
+      <c r="DT10" s="4">
         <v>-73.868450776214218</v>
       </c>
-      <c r="DU10">
+      <c r="DU10" s="4">
         <v>-23.905594135708579</v>
       </c>
-      <c r="DV10">
+      <c r="DV10" s="4">
         <v>-49.495735463171748</v>
       </c>
-      <c r="DW10">
+      <c r="DW10" s="4">
         <v>133.68925806454601</v>
       </c>
-      <c r="DX10">
+      <c r="DX10" s="4">
         <v>-15.42595012704837</v>
       </c>
-      <c r="DY10">
+      <c r="DY10" s="4">
         <v>-31.147868637813321</v>
       </c>
-      <c r="DZ10">
+      <c r="DZ10" s="4">
         <v>42.263455712412139</v>
       </c>
-      <c r="EA10">
+      <c r="EA10" s="4">
         <v>9.2758174678473164</v>
       </c>
-      <c r="EB10">
+      <c r="EB10" s="4">
         <v>-15.86675608866822</v>
       </c>
-      <c r="EC10">
+      <c r="EC10" s="4">
         <v>37.796694042975467</v>
       </c>
-      <c r="ED10">
+      <c r="ED10" s="4">
         <v>-11.724145633892681</v>
       </c>
-      <c r="EE10">
+      <c r="EE10" s="4">
         <v>-21.704732256894012</v>
       </c>
-      <c r="EF10">
+      <c r="EF10" s="4">
         <v>-12.44978654213033</v>
       </c>
-      <c r="EG10">
+      <c r="EG10" s="4">
         <v>47.179648794576018</v>
       </c>
-      <c r="EH10">
+      <c r="EH10" s="4">
         <v>10.22826057685673</v>
       </c>
-      <c r="EI10">
+      <c r="EI10" s="4">
         <v>19.93071118251472</v>
       </c>
-      <c r="EJ10">
-        <v>0</v>
-      </c>
-      <c r="EK10">
-        <v>0</v>
-      </c>
-      <c r="EL10">
+      <c r="EJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>219.82</v>
@@ -5738,7 +5773,7 @@
         <v>8.9506331955473115</v>
       </c>
       <c r="AA11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB11">
         <v>379.97222222222217</v>
@@ -5780,22 +5815,22 @@
         <v>0.85022423128132552</v>
       </c>
       <c r="AO11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AQ11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV11">
         <v>10.98373581011351</v>
@@ -5804,10 +5839,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ11">
         <v>11</v>
@@ -5957,13 +5992,13 @@
         <v>11</v>
       </c>
       <c r="CW11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CX11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CY11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="CZ11">
         <v>20.639614229824399</v>
@@ -6085,7 +6120,7 @@
     </row>
     <row r="12" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12">
         <v>164.71</v>
@@ -6163,7 +6198,7 @@
         <v>25.622578837201871</v>
       </c>
       <c r="AA12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB12">
         <v>129.64833333333331</v>
@@ -6205,22 +6240,22 @@
         <v>1.4313483779743319</v>
       </c>
       <c r="AO12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV12">
         <v>-3.1783591331269339</v>
@@ -6229,10 +6264,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ12">
         <v>13</v>
@@ -6382,10 +6417,10 @@
         <v>1</v>
       </c>
       <c r="CW12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CX12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="CY12" t="s">
         <v>3</v>
@@ -6510,7 +6545,7 @@
     </row>
     <row r="13" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13">
         <v>45.37</v>
@@ -6588,7 +6623,7 @@
         <v>-177.72257962254929</v>
       </c>
       <c r="AA13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB13">
         <v>1079.751111111111</v>
@@ -6630,25 +6665,25 @@
         <v>-1.603136118967643</v>
       </c>
       <c r="AO13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP13">
         <v>3</v>
       </c>
       <c r="AQ13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV13">
         <v>54.721052631578907</v>
@@ -6657,10 +6692,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ13">
         <v>34</v>
@@ -6810,13 +6845,13 @@
         <v>7</v>
       </c>
       <c r="CW13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="CX13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="CY13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CZ13">
         <v>-100</v>
@@ -6938,7 +6973,7 @@
     </row>
     <row r="14" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14">
         <v>44.95</v>
@@ -7016,7 +7051,7 @@
         <v>-7.1054273576010019E-15</v>
       </c>
       <c r="AA14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB14">
         <v>44.95000000000001</v>
@@ -7058,22 +7093,22 @@
         <v>-1.545463398596413E-15</v>
       </c>
       <c r="AO14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AQ14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV14">
         <v>0</v>
@@ -7082,10 +7117,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ14">
         <v>19</v>
@@ -7235,10 +7270,10 @@
         <v>0</v>
       </c>
       <c r="CW14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CX14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CZ14">
         <v>0</v>
@@ -7360,7 +7395,7 @@
     </row>
     <row r="15" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15">
         <v>1000</v>
@@ -7438,7 +7473,7 @@
         <v>696.64632115936683</v>
       </c>
       <c r="AA15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB15">
         <v>651.83333333333337</v>
@@ -7480,22 +7515,22 @@
         <v>9.1586457337013325</v>
       </c>
       <c r="AO15" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>190</v>
       </c>
-      <c r="AQ15" t="s">
-        <v>191</v>
-      </c>
       <c r="AR15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV15">
         <v>-66.32301341589266</v>
@@ -7504,10 +7539,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ15">
         <v>4</v>
@@ -7657,10 +7692,10 @@
         <v>1</v>
       </c>
       <c r="CW15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CX15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CY15" t="s">
         <v>2</v>
@@ -7785,7 +7820,7 @@
     </row>
     <row r="16" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16">
         <v>1122.32</v>
@@ -7863,7 +7898,7 @@
         <v>-329.50862517280871</v>
       </c>
       <c r="AA16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB16">
         <v>1966.800555555556</v>
@@ -7905,22 +7940,22 @@
         <v>-0.75999624475026861</v>
       </c>
       <c r="AO16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AS16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT16" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU16" t="s">
         <v>206</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>207</v>
       </c>
       <c r="AV16">
         <v>84.353261093911229</v>
@@ -7929,10 +7964,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ16">
         <v>33</v>
@@ -8082,13 +8117,13 @@
         <v>7</v>
       </c>
       <c r="CW16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="CX16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CY16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CZ16">
         <v>-14.38448927222182</v>
@@ -8210,7 +8245,7 @@
     </row>
     <row r="17" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -8288,7 +8323,7 @@
         <v>9.9323693434368323</v>
       </c>
       <c r="AA17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB17">
         <v>77.741666666666674</v>
@@ -8330,22 +8365,22 @@
         <v>3.0077644805630261</v>
       </c>
       <c r="AO17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AQ17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV17">
         <v>6.3949948400412797</v>
@@ -8354,10 +8389,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ17">
         <v>12</v>
@@ -8507,10 +8542,10 @@
         <v>1</v>
       </c>
       <c r="CW17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CX17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CY17" t="s">
         <v>9</v>
@@ -8635,7 +8670,7 @@
     </row>
     <row r="18" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -8713,7 +8748,7 @@
         <v>-19.23405665795827</v>
       </c>
       <c r="AA18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB18">
         <v>14.018333333333331</v>
@@ -8755,22 +8790,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV18">
         <v>1.4009391124871</v>
@@ -8779,10 +8814,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ18">
         <v>23</v>
@@ -9051,7 +9086,7 @@
     </row>
     <row r="19" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>801.02</v>
@@ -9129,7 +9164,7 @@
         <v>-160.5973817076883</v>
       </c>
       <c r="AA19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB19">
         <v>123.65666666666669</v>
@@ -9171,22 +9206,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV19">
         <v>-9.0200206398348843</v>
@@ -9195,10 +9230,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ19">
         <v>31</v>
@@ -9348,13 +9383,13 @@
         <v>2</v>
       </c>
       <c r="CW19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CX19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="CY19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="CZ19">
         <v>-99.199770292876593</v>
@@ -9476,7 +9511,7 @@
     </row>
     <row r="20" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>3416.71</v>
@@ -9554,7 +9589,7 @@
         <v>-237.93736734107009</v>
       </c>
       <c r="AA20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB20">
         <v>4522.1838888888888</v>
@@ -9596,22 +9631,22 @@
         <v>0.24116222762306541</v>
       </c>
       <c r="AO20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AR20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT20" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU20" t="s">
         <v>206</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>207</v>
       </c>
       <c r="AV20">
         <v>177.38795665634669</v>
@@ -9620,10 +9655,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ20">
         <v>6</v>
@@ -9773,13 +9808,13 @@
         <v>11</v>
       </c>
       <c r="CW20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CX20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CY20" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="CZ20">
         <v>-9.0244709091494482</v>
@@ -9901,7 +9936,7 @@
     </row>
     <row r="21" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21">
         <v>3778.55</v>
@@ -9979,7 +10014,7 @@
         <v>-445.46740331268848</v>
       </c>
       <c r="AA21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB21">
         <v>4572.0066666666653</v>
@@ -10021,22 +10056,22 @@
         <v>7.615591669097063E-3</v>
       </c>
       <c r="AO21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR21" t="s">
         <v>196</v>
       </c>
-      <c r="AR21" t="s">
-        <v>197</v>
-      </c>
       <c r="AS21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU21" t="s">
         <v>206</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>207</v>
       </c>
       <c r="AV21">
         <v>173.86094943240451</v>
@@ -10045,10 +10080,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ21">
         <v>17</v>
@@ -10198,13 +10233,13 @@
         <v>11</v>
       </c>
       <c r="CW21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="CX21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="CY21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="CZ21">
         <v>-29.748977782482701</v>
@@ -10324,434 +10359,434 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="3">
         <v>14441.7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>5213.45</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>4615.96</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>23008.34</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>6924.88</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>7639.97</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>5939.05</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>6763.4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>6474.33</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <v>8620.64</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>5236.09</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <v>6642.2</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>5242.32</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>5990.31</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>10020.51</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="3">
         <v>6759.44</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>10043.540000000001</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="3">
         <v>9537.39</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="3">
         <v>18</v>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
+      <c r="U22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>8284.0844444444447</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="3">
         <v>8.6300000000000002E-2</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="3">
         <v>-0.41920000000000002</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="3">
         <v>1880.3463622691411</v>
       </c>
-      <c r="AA22" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB22">
+      <c r="AA22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB22" s="3">
         <v>8284.0844444444447</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
         <v>8284.0844444444447</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="3">
         <v>8210.3605882352931</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="3">
         <v>9537.39</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="3">
         <v>4195.2845954850254</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="3">
         <v>9537.39</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="3">
         <v>8284.0844444444447</v>
       </c>
-      <c r="AJ22">
+      <c r="AJ22" s="3">
         <v>8210.3605882352931</v>
       </c>
-      <c r="AK22">
+      <c r="AK22" s="3">
         <v>8284.0844444444429</v>
       </c>
-      <c r="AL22">
+      <c r="AL22" s="3">
         <v>1327.0294117647061</v>
       </c>
-      <c r="AM22">
+      <c r="AM22" s="3">
         <v>0.16162863951020859</v>
       </c>
-      <c r="AN22">
+      <c r="AN22" s="3">
         <v>1.580216286979649</v>
       </c>
-      <c r="AO22" t="s">
+      <c r="AO22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AQ22" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>208</v>
-      </c>
-      <c r="AV22">
+      <c r="AR22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT22" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU22" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV22" s="3">
         <v>-154.83731682146529</v>
       </c>
-      <c r="AW22">
+      <c r="AW22" s="3">
         <v>2719.0143962848292</v>
       </c>
-      <c r="AX22" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>215</v>
-      </c>
-      <c r="AZ22">
+      <c r="AX22" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY22" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AZ22" s="3">
         <v>3</v>
       </c>
-      <c r="BA22">
+      <c r="BA22" s="3">
         <v>614000</v>
       </c>
-      <c r="BB22">
-        <v>0</v>
-      </c>
-      <c r="BC22">
+      <c r="BB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="3">
         <v>1.151290774974663</v>
       </c>
-      <c r="BD22">
+      <c r="BD22" s="3">
         <v>9537.39</v>
       </c>
-      <c r="BE22">
-        <v>0</v>
-      </c>
-      <c r="BF22">
+      <c r="BE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="3">
         <v>9537.39</v>
       </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>0</v>
-      </c>
-      <c r="BI22">
+      <c r="BG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI22" s="3">
         <v>8210.3605882352931</v>
       </c>
-      <c r="BJ22">
+      <c r="BJ22" s="3">
         <v>21</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BM22">
+      <c r="BK22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="3">
         <v>18531.283317855021</v>
       </c>
-      <c r="BN22">
-        <v>0</v>
-      </c>
-      <c r="BO22">
+      <c r="BN22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO22" s="3">
         <v>1031.85988942836</v>
       </c>
-      <c r="BP22">
-        <v>0</v>
-      </c>
-      <c r="BQ22">
+      <c r="BP22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ22" s="3">
         <v>447.87059890102501</v>
       </c>
-      <c r="BR22">
-        <v>0</v>
-      </c>
-      <c r="BS22">
+      <c r="BR22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="3">
         <v>589.24851902301634</v>
       </c>
-      <c r="BT22">
-        <v>0</v>
-      </c>
-      <c r="BU22">
+      <c r="BT22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="3">
         <v>945.56800073651357</v>
       </c>
-      <c r="BV22">
-        <v>0</v>
-      </c>
-      <c r="BW22">
+      <c r="BV22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="3">
         <v>826.52128340691524</v>
       </c>
-      <c r="BX22">
+      <c r="BX22" s="3">
         <v>4434.1712577353755</v>
       </c>
-      <c r="BY22">
-        <v>0</v>
-      </c>
-      <c r="BZ22">
+      <c r="BY22" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ22" s="3">
         <v>4163.5294958938657</v>
       </c>
-      <c r="CA22">
-        <v>0</v>
-      </c>
-      <c r="CB22">
+      <c r="CA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB22" s="3">
         <v>-13.3983037688275</v>
       </c>
-      <c r="CC22">
+      <c r="CC22" s="3">
         <v>-5.8498165455926996</v>
       </c>
-      <c r="CD22">
+      <c r="CD22" s="3">
         <v>-8.0091967403318343</v>
       </c>
-      <c r="CE22">
+      <c r="CE22" s="3">
         <v>15.826950741481999</v>
       </c>
-      <c r="CF22">
+      <c r="CF22" s="3">
         <v>-9.5743736993039619</v>
       </c>
-      <c r="CG22">
+      <c r="CG22" s="3">
         <v>16.060479827816572</v>
       </c>
-      <c r="CH22">
+      <c r="CH22" s="3">
         <v>1.3390508768064591</v>
       </c>
-      <c r="CI22">
+      <c r="CI22" s="3">
         <v>20.602987534438949</v>
       </c>
-      <c r="CJ22">
+      <c r="CJ22" s="3">
         <v>19.04977010713052</v>
       </c>
-      <c r="CK22">
+      <c r="CK22" s="3">
         <v>-12.65503900682477</v>
       </c>
-      <c r="CL22">
+      <c r="CL22" s="3">
         <v>3.7955325302560792</v>
       </c>
-      <c r="CM22">
+      <c r="CM22" s="3">
         <v>16.029458628169721</v>
       </c>
-      <c r="CN22">
+      <c r="CN22" s="3">
         <v>-6.4980253667634713</v>
       </c>
-      <c r="CO22">
+      <c r="CO22" s="3">
         <v>-11.74374544448243</v>
       </c>
-      <c r="CP22">
+      <c r="CP22" s="3">
         <v>20.716481277808949</v>
       </c>
-      <c r="CQ22">
+      <c r="CQ22" s="3">
         <v>-18.01038985321069</v>
       </c>
-      <c r="CR22">
+      <c r="CR22" s="3">
         <v>3.0006731224033092</v>
       </c>
-      <c r="CS22">
+      <c r="CS22" s="3">
         <v>30970.052362980088</v>
       </c>
-      <c r="CT22">
+      <c r="CT22" s="3">
         <v>8</v>
       </c>
-      <c r="CU22">
+      <c r="CU22" s="3">
         <v>5</v>
       </c>
-      <c r="CV22">
+      <c r="CV22" s="3">
         <v>11</v>
       </c>
-      <c r="CW22" t="s">
-        <v>232</v>
-      </c>
-      <c r="CX22" t="s">
-        <v>261</v>
-      </c>
-      <c r="CY22" t="s">
-        <v>283</v>
-      </c>
-      <c r="CZ22">
+      <c r="CW22" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="CX22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="CY22" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="CZ22" s="3">
         <v>-63.900025620252457</v>
       </c>
-      <c r="DA22">
+      <c r="DA22" s="3">
         <v>-11.460549156508639</v>
       </c>
-      <c r="DB22">
+      <c r="DB22" s="3">
         <v>398.45189299733971</v>
       </c>
-      <c r="DC22">
+      <c r="DC22" s="3">
         <v>-69.902739615287317</v>
       </c>
-      <c r="DD22">
+      <c r="DD22" s="3">
         <v>10.326388327306759</v>
       </c>
-      <c r="DE22">
+      <c r="DE22" s="3">
         <v>-22.263438207218091</v>
       </c>
-      <c r="DF22">
+      <c r="DF22" s="3">
         <v>13.88016601981797</v>
       </c>
-      <c r="DG22">
+      <c r="DG22" s="3">
         <v>-4.2740337699973354</v>
       </c>
-      <c r="DH22">
+      <c r="DH22" s="3">
         <v>33.151075091940008</v>
       </c>
-      <c r="DI22">
+      <c r="DI22" s="3">
         <v>-39.261006143395377</v>
       </c>
-      <c r="DJ22">
+      <c r="DJ22" s="3">
         <v>26.854198457245769</v>
       </c>
-      <c r="DK22">
+      <c r="DK22" s="3">
         <v>-21.075547258438469</v>
       </c>
-      <c r="DL22">
+      <c r="DL22" s="3">
         <v>14.268301057547051</v>
       </c>
-      <c r="DM22">
+      <c r="DM22" s="3">
         <v>67.278655027870002</v>
       </c>
-      <c r="DN22">
+      <c r="DN22" s="3">
         <v>-32.543952353722517</v>
       </c>
-      <c r="DO22">
+      <c r="DO22" s="3">
         <v>48.585385771602397</v>
       </c>
-      <c r="DP22">
+      <c r="DP22" s="3">
         <v>-5.0395577654890751</v>
       </c>
-      <c r="DQ22">
+      <c r="DQ22" s="3">
         <v>-50.501721851424968</v>
       </c>
-      <c r="DR22">
+      <c r="DR22" s="3">
         <v>-5.6107326109159423</v>
       </c>
-      <c r="DS22">
+      <c r="DS22" s="3">
         <v>406.46108973767161</v>
       </c>
-      <c r="DT22">
+      <c r="DT22" s="3">
         <v>-85.729690356769311</v>
       </c>
-      <c r="DU22">
+      <c r="DU22" s="3">
         <v>19.900762026610721</v>
       </c>
-      <c r="DV22">
+      <c r="DV22" s="3">
         <v>-38.323918035034659</v>
       </c>
-      <c r="DW22">
+      <c r="DW22" s="3">
         <v>12.54111514301152</v>
       </c>
-      <c r="DX22">
+      <c r="DX22" s="3">
         <v>-24.87702130443628</v>
       </c>
-      <c r="DY22">
+      <c r="DY22" s="3">
         <v>14.10130498480949</v>
       </c>
-      <c r="DZ22">
+      <c r="DZ22" s="3">
         <v>-26.605967136570609</v>
       </c>
-      <c r="EA22">
+      <c r="EA22" s="3">
         <v>23.05866592698969</v>
       </c>
-      <c r="EB22">
+      <c r="EB22" s="3">
         <v>-37.10500588660819</v>
       </c>
-      <c r="EC22">
+      <c r="EC22" s="3">
         <v>20.76632642431052</v>
       </c>
-      <c r="ED22">
+      <c r="ED22" s="3">
         <v>79.02240047235243</v>
       </c>
-      <c r="EE22">
+      <c r="EE22" s="3">
         <v>-53.26043363153147</v>
       </c>
-      <c r="EF22">
+      <c r="EF22" s="3">
         <v>66.595775624813086</v>
       </c>
-      <c r="EG22">
+      <c r="EG22" s="3">
         <v>-8.0402308878923847</v>
       </c>
-      <c r="EH22">
+      <c r="EH22" s="3">
         <v>10.22826057685673</v>
       </c>
-      <c r="EI22">
+      <c r="EI22" s="3">
         <v>16.16286395102086</v>
       </c>
-      <c r="EJ22">
-        <v>0</v>
-      </c>
-      <c r="EK22">
-        <v>0</v>
-      </c>
-      <c r="EL22">
+      <c r="EJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK22" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL22" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <v>368.89</v>
@@ -10829,7 +10864,7 @@
         <v>2115.9544730125508</v>
       </c>
       <c r="AA23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB23">
         <v>1773.761666666667</v>
@@ -10871,22 +10906,22 @@
         <v>14.25840346332429</v>
       </c>
       <c r="AO23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>190</v>
       </c>
-      <c r="AQ23" t="s">
-        <v>191</v>
-      </c>
       <c r="AR23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AS23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV23">
         <v>105.5669659442724</v>
@@ -10895,10 +10930,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ23">
         <v>2</v>
@@ -11048,13 +11083,13 @@
         <v>6</v>
       </c>
       <c r="CW23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CX23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="CY23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="CZ23">
         <v>353.35736940551391</v>
@@ -11176,7 +11211,7 @@
     </row>
     <row r="24" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -11254,7 +11289,7 @@
         <v>-39.641603165428783</v>
       </c>
       <c r="AA24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB24">
         <v>36.576666666666682</v>
@@ -11296,22 +11331,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV24">
         <v>1.1571517027863769</v>
@@ -11320,10 +11355,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ24">
         <v>27</v>
@@ -11473,10 +11508,10 @@
         <v>1</v>
       </c>
       <c r="CW24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CX24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CY24" t="s">
         <v>16</v>
@@ -11601,7 +11636,7 @@
     </row>
     <row r="25" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -11679,7 +11714,7 @@
         <v>0</v>
       </c>
       <c r="AA25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB25">
         <v>2.923888888888889</v>
@@ -11721,22 +11756,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV25">
         <v>-0.7891331269349845</v>
@@ -11745,10 +11780,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ25">
         <v>20</v>
@@ -12023,7 +12058,7 @@
     </row>
     <row r="26" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B26">
         <v>300</v>
@@ -12101,7 +12136,7 @@
         <v>-53.435988876221131</v>
       </c>
       <c r="AA26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB26">
         <v>455.94444444444451</v>
@@ -12143,22 +12178,22 @@
         <v>-2.923622990188699</v>
       </c>
       <c r="AO26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV26">
         <v>-16.314757481940141</v>
@@ -12167,10 +12202,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ26">
         <v>32</v>
@@ -12320,13 +12355,13 @@
         <v>8</v>
       </c>
       <c r="CW26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CX26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CY26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="CZ26">
         <v>0</v>
@@ -12448,7 +12483,7 @@
     </row>
     <row r="27" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27">
         <v>190.32</v>
@@ -12526,7 +12561,7 @@
         <v>10.30498391411987</v>
       </c>
       <c r="AA27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB27">
         <v>185.95444444444439</v>
@@ -12568,22 +12603,22 @@
         <v>0.59743470879501692</v>
       </c>
       <c r="AO27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV27">
         <v>0.34123839009287937</v>
@@ -12592,10 +12627,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ27">
         <v>15</v>
@@ -12745,13 +12780,13 @@
         <v>10</v>
       </c>
       <c r="CW27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="CX27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="CY27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="CZ27">
         <v>1.192728036990337</v>
@@ -12873,7 +12908,7 @@
     </row>
     <row r="28" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28">
         <v>653.80999999999995</v>
@@ -12951,7 +12986,7 @@
         <v>325.52965313308988</v>
       </c>
       <c r="AA28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB28">
         <v>578.82722222222208</v>
@@ -12993,22 +13028,22 @@
         <v>6.7197181982268557</v>
       </c>
       <c r="AO28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>190</v>
       </c>
-      <c r="AQ28" t="s">
-        <v>191</v>
-      </c>
       <c r="AR28" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS28" t="s">
         <v>200</v>
       </c>
-      <c r="AS28" t="s">
-        <v>201</v>
-      </c>
       <c r="AT28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV28">
         <v>17.808472652218779</v>
@@ -13017,10 +13052,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AZ28">
         <v>5</v>
@@ -13170,13 +13205,13 @@
         <v>9</v>
       </c>
       <c r="CW28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="CX28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CY28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="CZ28">
         <v>-57.548829170554129</v>
@@ -13298,7 +13333,7 @@
     </row>
     <row r="29" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>6288.16</v>
@@ -13376,7 +13411,7 @@
         <v>90.621576812659441</v>
       </c>
       <c r="AA29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB29">
         <v>5789.5394444444446</v>
@@ -13418,22 +13453,22 @@
         <v>6.7436018489587538E-2</v>
       </c>
       <c r="AO29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AR29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV29">
         <v>-27.576150670794629</v>
@@ -13442,10 +13477,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ29">
         <v>10</v>
@@ -13595,13 +13630,13 @@
         <v>10</v>
       </c>
       <c r="CW29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="CX29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CY29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="CZ29">
         <v>-6.6200605582555108</v>
@@ -13723,7 +13758,7 @@
     </row>
     <row r="30" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -13801,7 +13836,7 @@
         <v>-134.6681764324135</v>
       </c>
       <c r="AA30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB30">
         <v>91.827222222222218</v>
@@ -13843,22 +13878,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV30">
         <v>14.78638802889577</v>
@@ -13867,10 +13902,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ30">
         <v>28</v>
@@ -14020,10 +14055,10 @@
         <v>0</v>
       </c>
       <c r="CW30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CX30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CZ30">
         <v>0</v>
@@ -14145,7 +14180,7 @@
     </row>
     <row r="31" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -14223,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="AA31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AB31">
         <v>33.333333333333343</v>
@@ -14265,22 +14300,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV31">
         <v>-3.228072745459475E-16</v>
@@ -14289,10 +14324,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ31">
         <v>26</v>
@@ -14442,10 +14477,10 @@
         <v>0</v>
       </c>
       <c r="CW31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CX31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CZ31">
         <v>0</v>
@@ -14567,7 +14602,7 @@
     </row>
     <row r="32" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -14645,7 +14680,7 @@
         <v>-42.48571915063107</v>
       </c>
       <c r="AA32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB32">
         <v>28.222222222222221</v>
@@ -14687,22 +14722,22 @@
         <v>-8.7894700593008945</v>
       </c>
       <c r="AO32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV32">
         <v>0.54695562435500489</v>
@@ -14711,10 +14746,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ32">
         <v>25</v>
@@ -14983,7 +15018,7 @@
     </row>
     <row r="33" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B33">
         <v>5095.6099999999997</v>
@@ -15061,7 +15096,7 @@
         <v>-559.76234911897609</v>
       </c>
       <c r="AA33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB33">
         <v>898.33989854415177</v>
@@ -15103,22 +15138,22 @@
         <v>1.45960941749363E-2</v>
       </c>
       <c r="AO33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ33" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR33" t="s">
         <v>196</v>
       </c>
-      <c r="AR33" t="s">
-        <v>197</v>
-      </c>
       <c r="AS33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT33" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU33" t="s">
         <v>206</v>
-      </c>
-      <c r="AU33" t="s">
-        <v>207</v>
       </c>
       <c r="AV33">
         <v>188.74640866873071</v>
@@ -15127,10 +15162,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ33">
         <v>16</v>
@@ -15280,13 +15315,13 @@
         <v>6</v>
       </c>
       <c r="CW33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CX33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CY33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="CZ33">
         <v>26.31382700010402</v>
@@ -15406,431 +15441,431 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:142" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
+    <row r="34" spans="1:142" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3">
         <v>556.85</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
         <v>-1499.25</v>
       </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
         <v>2</v>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
+      <c r="U34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB34">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="3">
         <v>-55.435294117647061</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="3">
         <v>-26.514270488585389</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="3">
         <v>-55.435294117647061</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="3">
         <v>55.435294117647061</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="3">
         <v>-1</v>
       </c>
-      <c r="AN34">
+      <c r="AN34" s="3">
         <v>-9.7768334360065019</v>
       </c>
-      <c r="AO34" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU34" t="s">
+      <c r="AO34" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AU34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>0.61898864809081389</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>2719.0143962848292</v>
+      </c>
+      <c r="AX34" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AV34">
-        <v>0.61898864809081389</v>
-      </c>
-      <c r="AW34">
-        <v>2719.0143962848292</v>
-      </c>
-      <c r="AX34" t="s">
-        <v>210</v>
-      </c>
-      <c r="AY34" t="s">
-        <v>194</v>
-      </c>
-      <c r="AZ34">
+      <c r="AY34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AZ34" s="3">
         <v>9</v>
       </c>
-      <c r="BA34">
+      <c r="BA34" s="3">
         <v>630100</v>
       </c>
-      <c r="BB34">
-        <v>0</v>
-      </c>
-      <c r="BC34">
+      <c r="BB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC34" s="3">
         <v>1</v>
       </c>
-      <c r="BD34">
-        <v>0</v>
-      </c>
-      <c r="BE34">
-        <v>0</v>
-      </c>
-      <c r="BF34">
+      <c r="BD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="3">
         <v>-52.355555555555547</v>
       </c>
-      <c r="BG34">
+      <c r="BG34" s="3">
         <v>52.355555555555547</v>
       </c>
-      <c r="BH34">
+      <c r="BH34" s="3">
         <v>-100</v>
       </c>
-      <c r="BI34">
+      <c r="BI34" s="3">
         <v>-55.435294117647061</v>
       </c>
-      <c r="BJ34">
+      <c r="BJ34" s="3">
         <v>10</v>
       </c>
-      <c r="BK34">
-        <v>0</v>
-      </c>
-      <c r="BL34">
-        <v>0</v>
-      </c>
-      <c r="BM34">
-        <v>0</v>
-      </c>
-      <c r="BN34">
-        <v>0</v>
-      </c>
-      <c r="BO34">
+      <c r="BK34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO34" s="3">
         <v>556.85</v>
       </c>
-      <c r="BP34">
-        <v>0</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>0</v>
-      </c>
-      <c r="BT34">
-        <v>0</v>
-      </c>
-      <c r="BU34">
-        <v>0</v>
-      </c>
-      <c r="BV34">
-        <v>0</v>
-      </c>
-      <c r="BW34">
-        <v>0</v>
-      </c>
-      <c r="BX34">
-        <v>0</v>
-      </c>
-      <c r="BY34">
-        <v>0</v>
-      </c>
-      <c r="BZ34">
-        <v>0</v>
-      </c>
-      <c r="CA34">
-        <v>0</v>
-      </c>
-      <c r="CB34">
+      <c r="BP34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB34" s="3">
         <v>-13.3983037688275</v>
       </c>
-      <c r="CC34">
+      <c r="CC34" s="3">
         <v>-5.8498165455926996</v>
       </c>
-      <c r="CD34">
+      <c r="CD34" s="3">
         <v>-8.0091967403318343</v>
       </c>
-      <c r="CE34">
+      <c r="CE34" s="3">
         <v>15.826950741481999</v>
       </c>
-      <c r="CF34">
+      <c r="CF34" s="3">
         <v>-9.5743736993039619</v>
       </c>
-      <c r="CG34">
+      <c r="CG34" s="3">
         <v>16.060479827816572</v>
       </c>
-      <c r="CH34">
+      <c r="CH34" s="3">
         <v>1.3390508768064591</v>
       </c>
-      <c r="CI34">
+      <c r="CI34" s="3">
         <v>20.602987534438949</v>
       </c>
-      <c r="CJ34">
+      <c r="CJ34" s="3">
         <v>19.04977010713052</v>
       </c>
-      <c r="CK34">
+      <c r="CK34" s="3">
         <v>-12.65503900682477</v>
       </c>
-      <c r="CL34">
+      <c r="CL34" s="3">
         <v>3.7955325302560792</v>
       </c>
-      <c r="CM34">
+      <c r="CM34" s="3">
         <v>16.029458628169721</v>
       </c>
-      <c r="CN34">
+      <c r="CN34" s="3">
         <v>-6.4980253667634713</v>
       </c>
-      <c r="CO34">
+      <c r="CO34" s="3">
         <v>-11.74374544448243</v>
       </c>
-      <c r="CP34">
+      <c r="CP34" s="3">
         <v>20.716481277808949</v>
       </c>
-      <c r="CQ34">
+      <c r="CQ34" s="3">
         <v>-18.01038985321069</v>
       </c>
-      <c r="CR34">
+      <c r="CR34" s="3">
         <v>3.0006731224033092</v>
       </c>
-      <c r="CS34">
+      <c r="CS34" s="3">
         <v>556.85</v>
       </c>
-      <c r="CT34">
+      <c r="CT34" s="3">
         <v>1</v>
       </c>
-      <c r="CU34">
+      <c r="CU34" s="3">
         <v>1</v>
       </c>
-      <c r="CV34">
-        <v>0</v>
-      </c>
-      <c r="CW34" t="s">
+      <c r="CV34" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CX34" t="s">
+      <c r="CX34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="CZ34">
-        <v>0</v>
-      </c>
-      <c r="DA34">
-        <v>0</v>
-      </c>
-      <c r="DB34">
-        <v>0</v>
-      </c>
-      <c r="DC34">
-        <v>0</v>
-      </c>
-      <c r="DD34">
-        <v>0</v>
-      </c>
-      <c r="DE34">
+      <c r="CZ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE34" s="3">
         <v>-100</v>
       </c>
-      <c r="DF34">
-        <v>0</v>
-      </c>
-      <c r="DG34">
+      <c r="DF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG34" s="3">
         <v>-100</v>
       </c>
-      <c r="DH34">
-        <v>0</v>
-      </c>
-      <c r="DI34">
-        <v>0</v>
-      </c>
-      <c r="DJ34">
-        <v>0</v>
-      </c>
-      <c r="DK34">
-        <v>0</v>
-      </c>
-      <c r="DL34">
-        <v>0</v>
-      </c>
-      <c r="DM34">
-        <v>0</v>
-      </c>
-      <c r="DN34">
-        <v>0</v>
-      </c>
-      <c r="DO34">
-        <v>0</v>
-      </c>
-      <c r="DP34">
-        <v>0</v>
-      </c>
-      <c r="DQ34">
+      <c r="DH34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DP34" s="3">
+        <v>0</v>
+      </c>
+      <c r="DQ34" s="3">
         <v>13.3983037688275</v>
       </c>
-      <c r="DR34">
+      <c r="DR34" s="3">
         <v>5.8498165455926996</v>
       </c>
-      <c r="DS34">
+      <c r="DS34" s="3">
         <v>8.0091967403318343</v>
       </c>
-      <c r="DT34">
+      <c r="DT34" s="3">
         <v>-15.826950741481999</v>
       </c>
-      <c r="DU34">
+      <c r="DU34" s="3">
         <v>9.5743736993039619</v>
       </c>
-      <c r="DV34">
+      <c r="DV34" s="3">
         <v>-116.06047982781659</v>
       </c>
-      <c r="DW34">
+      <c r="DW34" s="3">
         <v>-1.3390508768064591</v>
       </c>
-      <c r="DX34">
+      <c r="DX34" s="3">
         <v>-120.60298753443899</v>
       </c>
-      <c r="DY34">
+      <c r="DY34" s="3">
         <v>-19.04977010713052</v>
       </c>
-      <c r="DZ34">
+      <c r="DZ34" s="3">
         <v>12.65503900682477</v>
       </c>
-      <c r="EA34">
+      <c r="EA34" s="3">
         <v>-3.7955325302560792</v>
       </c>
-      <c r="EB34">
+      <c r="EB34" s="3">
         <v>-16.029458628169721</v>
       </c>
-      <c r="EC34">
+      <c r="EC34" s="3">
         <v>6.4980253667634713</v>
       </c>
-      <c r="ED34">
+      <c r="ED34" s="3">
         <v>11.74374544448243</v>
       </c>
-      <c r="EE34">
+      <c r="EE34" s="3">
         <v>-20.716481277808949</v>
       </c>
-      <c r="EF34">
+      <c r="EF34" s="3">
         <v>18.01038985321069</v>
       </c>
-      <c r="EG34">
+      <c r="EG34" s="3">
         <v>-3.0006731224033092</v>
       </c>
-      <c r="EH34">
+      <c r="EH34" s="3">
         <v>10.22826057685673</v>
       </c>
-      <c r="EI34">
+      <c r="EI34" s="3">
         <v>-100</v>
       </c>
-      <c r="EJ34">
-        <v>0</v>
-      </c>
-      <c r="EK34">
-        <v>0</v>
-      </c>
-      <c r="EL34">
+      <c r="EJ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="EK34" s="3">
+        <v>0</v>
+      </c>
+      <c r="EL34" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -15908,7 +15943,7 @@
         <v>-95.227526041553176</v>
       </c>
       <c r="AA35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB35">
         <v>371.85722222222222</v>
@@ -15950,22 +15985,22 @@
         <v>-3.082100449250186</v>
       </c>
       <c r="AO35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV35">
         <v>-8.7844272445820408</v>
@@ -15974,10 +16009,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ35">
         <v>29</v>
@@ -16127,13 +16162,13 @@
         <v>4</v>
       </c>
       <c r="CW35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="CX35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CY35" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="CZ35">
         <v>8399</v>
@@ -16255,7 +16290,7 @@
     </row>
     <row r="36" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>297.89999999999998</v>
@@ -16333,7 +16368,7 @@
         <v>1.4877102171882941</v>
       </c>
       <c r="AA36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB36">
         <v>284.57444444444451</v>
@@ -16375,22 +16410,22 @@
         <v>0.49303167089426381</v>
       </c>
       <c r="AO36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AQ36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV36">
         <v>3.691496388028896</v>
@@ -16399,10 +16434,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AY36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ36">
         <v>14</v>
@@ -16552,13 +16587,13 @@
         <v>6</v>
       </c>
       <c r="CW36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="CX36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="CY36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="CZ36">
         <v>2.705605908022827</v>
@@ -16680,7 +16715,7 @@
     </row>
     <row r="37" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B37">
         <v>1500</v>
@@ -16758,7 +16793,7 @@
         <v>-587.99288774505658</v>
       </c>
       <c r="AA37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB37">
         <v>2101.5555555555561</v>
@@ -16800,25 +16835,25 @@
         <v>-2.9141035136830649</v>
       </c>
       <c r="AO37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AP37">
         <v>1</v>
       </c>
       <c r="AQ37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV37">
         <v>-4.2939112487100211</v>
@@ -16827,10 +16862,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ37">
         <v>36</v>
@@ -16977,13 +17012,13 @@
         <v>4</v>
       </c>
       <c r="CW37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CX37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="CY37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="CZ37">
         <v>0</v>
@@ -17105,7 +17140,7 @@
     </row>
     <row r="38" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B38">
         <v>3003.39</v>
@@ -17183,7 +17218,7 @@
         <v>-2.0979333720943032</v>
       </c>
       <c r="AA38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB38">
         <v>3007.032777777777</v>
@@ -17225,22 +17260,22 @@
         <v>-2.6134838841966351E-2</v>
       </c>
       <c r="AO38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AT38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV38">
         <v>-1.474602683178533</v>
@@ -17249,10 +17284,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ38">
         <v>22</v>
@@ -17399,13 +17434,13 @@
         <v>8</v>
       </c>
       <c r="CW38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CX38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="CY38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="CZ38">
         <v>-0.1754683873889166</v>
@@ -17527,7 +17562,7 @@
     </row>
     <row r="39" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -17605,7 +17640,7 @@
         <v>-10.643706406040071</v>
       </c>
       <c r="AA39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AB39">
         <v>15.24388888888889</v>
@@ -17647,22 +17682,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV39">
         <v>-1.092868937048503</v>
@@ -17671,10 +17706,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AY39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ39">
         <v>24</v>
@@ -17821,13 +17856,13 @@
         <v>2</v>
       </c>
       <c r="CW39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CX39" t="s">
         <v>3</v>
       </c>
       <c r="CY39" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="CZ39">
         <v>0</v>
@@ -17949,7 +17984,7 @@
     </row>
     <row r="40" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -18027,7 +18062,7 @@
         <v>0</v>
       </c>
       <c r="AA40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -18069,22 +18104,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV40">
         <v>0</v>
@@ -18093,10 +18128,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ40">
         <v>35</v>
@@ -18359,7 +18394,7 @@
     </row>
     <row r="41" spans="1:142" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -18437,7 +18472,7 @@
         <v>0</v>
       </c>
       <c r="AA41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -18479,22 +18514,22 @@
         <v>-9.7768334360065019</v>
       </c>
       <c r="AO41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AQ41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AR41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AS41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AT41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AU41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV41">
         <v>0</v>
@@ -18503,10 +18538,10 @@
         <v>2719.0143962848292</v>
       </c>
       <c r="AX41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AY41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AZ41">
         <v>21</v>
@@ -18774,6 +18809,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:EL41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>